--- a/data/activities/activity_configuration.xlsx
+++ b/data/activities/activity_configuration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Remo\git\AITAM\data\activities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remo/git/AITAM/data/activities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D015DC05-1A1D-4487-8FB0-A0B45DF7897D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6E8600-5BCE-A040-BA31-6B35CED55E93}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17565" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="76">
   <si>
     <t>Constraints</t>
   </si>
@@ -987,29 +986,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="52.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="5.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="52.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="6.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4"/>
       <c r="B1" s="1"/>
       <c r="C1" s="61" t="s">
@@ -1035,7 +1034,7 @@
       <c r="S1" s="62"/>
       <c r="T1" s="62"/>
     </row>
-    <row r="2" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" ht="28" x14ac:dyDescent="0.15">
       <c r="A2" s="47" t="s">
         <v>26</v>
       </c>
@@ -1097,7 +1096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1235,7 +1234,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1373,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1443,7 +1442,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1513,7 +1512,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1580,7 +1579,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1647,7 +1646,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1783,7 +1782,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1881,11 +1880,10 @@
         <v>16</v>
       </c>
       <c r="J14" s="10">
-        <f>2/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="K14" s="14">
         <v>0.4</v>
-      </c>
-      <c r="K14" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="L14" s="18" t="s">
         <v>16</v>
@@ -1903,22 +1901,21 @@
       <c r="P14" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="36" t="s">
-        <v>16</v>
+      <c r="Q14" s="36">
+        <v>0.2</v>
       </c>
       <c r="R14" s="42">
-        <f>2/5</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S14" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T14" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -1947,11 +1944,10 @@
         <v>31</v>
       </c>
       <c r="J15" s="10">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>16</v>
+        <v>0.05</v>
+      </c>
+      <c r="K15" s="14">
+        <v>0.2</v>
       </c>
       <c r="L15" s="18">
         <f>1/4</f>
@@ -1971,12 +1967,11 @@
       <c r="P15" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="36" t="s">
-        <v>16</v>
+      <c r="Q15" s="36">
+        <v>0.2</v>
       </c>
       <c r="R15" s="42">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S15" s="46" t="s">
         <v>16</v>
@@ -1986,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2015,11 +2010,10 @@
         <v>33</v>
       </c>
       <c r="J16" s="10">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>16</v>
+        <v>0.05</v>
+      </c>
+      <c r="K16" s="14">
+        <v>0.2</v>
       </c>
       <c r="L16" s="18">
         <f>1/4</f>
@@ -2039,12 +2033,11 @@
       <c r="P16" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="36" t="s">
-        <v>16</v>
+      <c r="Q16" s="36">
+        <v>0.2</v>
       </c>
       <c r="R16" s="42">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S16" s="46" t="s">
         <v>16</v>
@@ -2054,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2083,11 +2076,10 @@
         <v>16</v>
       </c>
       <c r="J17" s="10">
-        <f>2/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="14">
         <v>0.4</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="L17" s="18" t="s">
         <v>16</v>
@@ -2105,20 +2097,21 @@
       <c r="P17" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="36" t="s">
-        <v>16</v>
+      <c r="Q17" s="36">
+        <v>0.2</v>
       </c>
       <c r="R17" s="42">
-        <f>2/5</f>
-        <v>0.4</v>
-      </c>
-      <c r="S17" s="46"/>
+        <v>0.1</v>
+      </c>
+      <c r="S17" s="46" t="s">
+        <v>16</v>
+      </c>
       <c r="T17" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2147,11 +2140,10 @@
         <v>46</v>
       </c>
       <c r="J18" s="10">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>16</v>
+        <v>0.05</v>
+      </c>
+      <c r="K18" s="14">
+        <v>0.2</v>
       </c>
       <c r="L18" s="18">
         <f>1/4</f>
@@ -2171,12 +2163,11 @@
       <c r="P18" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="36" t="s">
-        <v>16</v>
+      <c r="Q18" s="36">
+        <v>0.2</v>
       </c>
       <c r="R18" s="42">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S18" s="46" t="s">
         <v>16</v>
@@ -2186,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2215,11 +2206,10 @@
         <v>16</v>
       </c>
       <c r="J19" s="10">
-        <f>2/5</f>
+        <v>0.1</v>
+      </c>
+      <c r="K19" s="14">
         <v>0.4</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>16</v>
       </c>
       <c r="L19" s="18" t="s">
         <v>16</v>
@@ -2237,22 +2227,21 @@
       <c r="P19" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="36" t="s">
-        <v>16</v>
+      <c r="Q19" s="36">
+        <v>0.2</v>
       </c>
       <c r="R19" s="42">
-        <f>2/5</f>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S19" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T19" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2281,11 +2270,10 @@
         <v>31</v>
       </c>
       <c r="J20" s="10">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>16</v>
+        <v>0.05</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.2</v>
       </c>
       <c r="L20" s="18">
         <f>1/4</f>
@@ -2305,12 +2293,11 @@
       <c r="P20" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="36" t="s">
-        <v>16</v>
+      <c r="Q20" s="36">
+        <v>0.2</v>
       </c>
       <c r="R20" s="42">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S20" s="46" t="s">
         <v>16</v>
@@ -2320,7 +2307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2349,11 +2336,10 @@
         <v>33</v>
       </c>
       <c r="J21" s="10">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>16</v>
+        <v>0.05</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.2</v>
       </c>
       <c r="L21" s="18">
         <f>1/4</f>
@@ -2373,12 +2359,11 @@
       <c r="P21" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="36" t="s">
-        <v>16</v>
+      <c r="Q21" s="36">
+        <v>0.2</v>
       </c>
       <c r="R21" s="42">
-        <f>1/4</f>
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="S21" s="46" t="s">
         <v>16</v>
@@ -2388,7 +2373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2417,44 +2402,39 @@
         <v>16</v>
       </c>
       <c r="J22" s="10">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K22" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L22" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M22" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N22" s="26" t="s">
-        <v>16</v>
+        <v>0.1</v>
+      </c>
+      <c r="K22" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M22" s="20"/>
+      <c r="N22" s="26">
+        <v>0.1</v>
       </c>
       <c r="O22" s="30">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
+        <v>0.1</v>
       </c>
       <c r="P22" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="36" t="s">
-        <v>16</v>
+      <c r="Q22" s="36">
+        <v>0.3</v>
       </c>
       <c r="R22" s="42">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="S22" s="46" t="s">
         <v>16</v>
       </c>
       <c r="T22" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -2483,35 +2463,29 @@
         <v>31</v>
       </c>
       <c r="J23" s="10">
-        <f>1/11</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K23" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L23" s="18" t="s">
-        <v>16</v>
+        <v>0.1</v>
+      </c>
+      <c r="K23" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0.1</v>
       </c>
       <c r="M23" s="20" t="s">
         <v>16</v>
       </c>
       <c r="N23" s="26">
-        <f>4/11</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O23" s="30">
-        <f>2/11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="P23" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q23" s="36" t="s">
-        <v>16</v>
+        <v>0.3</v>
+      </c>
+      <c r="O23" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="36">
+        <v>0.1</v>
       </c>
       <c r="R23" s="42">
-        <f>4/11</f>
-        <v>0.36363636363636365</v>
+        <v>0.2</v>
       </c>
       <c r="S23" s="46" t="s">
         <v>16</v>
@@ -2521,7 +2495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -2550,42 +2524,37 @@
         <v>16</v>
       </c>
       <c r="J24" s="10">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
-      </c>
-      <c r="K24" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="N24" s="26" t="s">
-        <v>16</v>
+        <v>0.1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="M24" s="20"/>
+      <c r="N24" s="26">
+        <v>0.1</v>
       </c>
       <c r="O24" s="30">
-        <f>2/7</f>
-        <v>0.2857142857142857</v>
+        <v>0.1</v>
       </c>
       <c r="P24" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="36" t="s">
-        <v>16</v>
+      <c r="Q24" s="36">
+        <v>0.3</v>
       </c>
       <c r="R24" s="42">
-        <f>4/7</f>
-        <v>0.5714285714285714</v>
+        <v>0.1</v>
       </c>
       <c r="S24" s="46"/>
       <c r="T24" s="5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -2614,35 +2583,29 @@
         <v>31</v>
       </c>
       <c r="J25" s="10">
-        <f>1/11</f>
-        <v>9.0909090909090912E-2</v>
-      </c>
-      <c r="K25" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L25" s="18" t="s">
-        <v>16</v>
+        <v>0.1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>0.1</v>
       </c>
       <c r="M25" s="20" t="s">
         <v>16</v>
       </c>
       <c r="N25" s="26">
-        <f>4/11</f>
-        <v>0.36363636363636365</v>
-      </c>
-      <c r="O25" s="30">
-        <f>2/11</f>
-        <v>0.18181818181818182</v>
-      </c>
-      <c r="P25" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>16</v>
+        <v>0.3</v>
+      </c>
+      <c r="O25" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="36">
+        <v>0.1</v>
       </c>
       <c r="R25" s="42">
-        <f>4/11</f>
-        <v>0.36363636363636365</v>
+        <v>0.2</v>
       </c>
       <c r="S25" s="46" t="s">
         <v>16</v>
@@ -2652,7 +2615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -2715,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -2778,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -2841,7 +2804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -2904,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -2967,7 +2930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3030,7 +2993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3093,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3159,16 +3122,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.15">
       <c r="T34" s="5"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
         <v>27</v>
       </c>
       <c r="T35" s="5"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A36" s="7">
         <v>1</v>
       </c>
@@ -3177,7 +3140,7 @@
       </c>
       <c r="T36" s="5"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A37" s="11">
         <v>2</v>
       </c>
@@ -3186,7 +3149,7 @@
       </c>
       <c r="T37" s="5"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A38" s="15">
         <v>3</v>
       </c>
@@ -3195,7 +3158,7 @@
       </c>
       <c r="T38" s="5"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A39" s="21">
         <v>4</v>
       </c>
@@ -3204,7 +3167,7 @@
       </c>
       <c r="T39" s="5"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A40" s="23">
         <v>5</v>
       </c>
@@ -3213,7 +3176,7 @@
       </c>
       <c r="T40" s="5"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A41" s="27">
         <v>6</v>
       </c>
@@ -3222,7 +3185,7 @@
       </c>
       <c r="T41" s="5"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A42" s="31">
         <v>7</v>
       </c>
@@ -3231,7 +3194,7 @@
       </c>
       <c r="T42" s="5"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A43" s="37">
         <v>8</v>
       </c>
@@ -3239,7 +3202,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A44" s="39">
         <v>9</v>
       </c>
@@ -3247,7 +3210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" ht="14" x14ac:dyDescent="0.15">
       <c r="A45" s="43">
         <v>10</v>
       </c>
@@ -3263,7 +3226,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="M4:M6 O6:P6 M7:M8 J6 R6 M11 P11 R11 J11:J23 O17:O23 M12:T16 M24:T33 M17:N23 P17:T23" formula="1"/>
+    <ignoredError sqref="M4:M6 O6:P6 M7:M8 J6 R6 M11 P11 R11 J11:J13 M12:T13 M26:T33 T17 T16 M14:P14 S14:T14 M15:P15 S15:T15 T19 T18 M23 T20 T21 P22 S22:T22 S23:T23 S24:T24 T25" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>